--- a/Collections/EURO/Croatia/#EURO#Croatia#Regular#[2008-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Croatia/#EURO#Croatia#Regular#[2008-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Croatia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FB0C12-77C4-4D35-890D-3F1FD2557D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA91A256-19DA-4D13-970E-0E5F19DA60A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -391,9 +391,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -500,6 +497,9 @@
   </si>
   <si>
     <t>45.000.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -758,6 +758,7 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -770,21 +771,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="11">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -850,55 +851,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -930,9 +882,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="15" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1203,11 +1155,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1222,38 +1174,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1262,14 +1214,14 @@
         <v>2023</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1287,7 +1239,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1314,10 +1266,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1332,38 +1284,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1372,14 +1324,14 @@
         <v>2023</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1397,7 +1349,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1427,7 +1379,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1442,38 +1394,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1482,14 +1434,14 @@
         <v>2023</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1507,7 +1459,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1537,7 +1489,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1552,38 +1504,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1592,16 +1544,16 @@
         <v>2023</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1618,7 +1570,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1648,7 +1600,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1663,38 +1615,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1703,16 +1655,16 @@
         <v>2023</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1729,7 +1681,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1759,7 +1711,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1774,38 +1726,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1814,16 +1766,16 @@
         <v>2023</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1840,7 +1792,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1870,7 +1822,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1885,38 +1837,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1925,16 +1877,16 @@
         <v>2023</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1952,7 +1904,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1978,11 +1930,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U30" sqref="U30"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1997,38 +1949,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2037,16 +1989,16 @@
         <v>2023</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2057,8 +2009,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2067,7 +2019,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2109,13 +2061,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2123,10 +2075,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2134,10 +2086,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2145,10 +2097,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2156,10 +2108,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Croatia/#EURO#Croatia#Regular#[2008-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Croatia/#EURO#Croatia#Regular#[2008-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Croatia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA91A256-19DA-4D13-970E-0E5F19DA60A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1E002A-9CE0-4245-8464-967EDD5A8B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -386,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
   <si>
     <t>Year</t>
   </si>
@@ -397,12 +407,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -500,6 +504,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -696,7 +709,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -759,6 +772,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1159,53 +1175,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1214,14 +1229,14 @@
         <v>2023</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1232,9 +1247,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1266,56 +1281,55 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46:B47"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1324,14 +1338,14 @@
         <v>2023</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1342,9 +1356,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1379,53 +1393,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1434,14 +1447,14 @@
         <v>2023</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1452,9 +1465,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1489,53 +1502,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1544,16 +1556,16 @@
         <v>2023</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1564,9 +1576,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
@@ -1600,53 +1612,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1655,16 +1666,16 @@
         <v>2023</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1675,9 +1686,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
@@ -1711,53 +1722,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1766,16 +1776,16 @@
         <v>2023</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1786,9 +1796,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
@@ -1822,53 +1832,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1877,16 +1886,16 @@
         <v>2023</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1897,9 +1906,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1934,53 +1943,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1989,16 +1997,16 @@
         <v>2023</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2013,9 +2021,9 @@
       <c r="S8" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
@@ -2061,13 +2069,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2075,10 +2083,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2086,10 +2094,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2097,10 +2105,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2108,10 +2116,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
